--- a/api/new.xlsx
+++ b/api/new.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="114">
   <si>
     <t>SF10-ES</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Name of Adviser/Teacher:</t>
+  </si>
+  <si>
+    <t>Yubert Mariscal</t>
   </si>
   <si>
     <t xml:space="preserve">Signature: </t>
@@ -3370,7 +3373,9 @@
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
-      <c r="H26" s="42"/>
+      <c r="H26" s="42" t="s">
+        <v>55</v>
+      </c>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -3378,7 +3383,7 @@
       <c r="M26" s="42"/>
       <c r="N26" s="42"/>
       <c r="O26" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -3386,7 +3391,7 @@
       <c r="S26" s="42"/>
       <c r="T26" s="60"/>
       <c r="V26" s="64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W26" s="43"/>
       <c r="X26" s="43"/>
@@ -3408,7 +3413,7 @@
       <c r="AN26" s="42"/>
       <c r="AO26" s="42"/>
       <c r="AP26" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
@@ -3471,7 +3476,7 @@
     </row>
     <row r="28" ht="15" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B28" s="73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
@@ -3482,23 +3487,23 @@
       <c r="I28" s="74"/>
       <c r="J28" s="75"/>
       <c r="K28" s="76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L28" s="77"/>
       <c r="M28" s="77"/>
       <c r="N28" s="77"/>
       <c r="O28" s="78"/>
       <c r="P28" s="79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="80"/>
       <c r="R28" s="81"/>
       <c r="S28" s="79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T28" s="82"/>
       <c r="V28" s="73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W28" s="74"/>
       <c r="X28" s="74"/>
@@ -3514,7 +3519,7 @@
       <c r="AH28" s="74"/>
       <c r="AI28" s="75"/>
       <c r="AJ28" s="83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" s="83"/>
       <c r="AL28" s="83"/>
@@ -3526,12 +3531,12 @@
       <c r="AR28" s="83"/>
       <c r="AS28" s="83"/>
       <c r="AT28" s="84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU28" s="74"/>
       <c r="AV28" s="75"/>
       <c r="AW28" s="84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AX28" s="85"/>
     </row>
@@ -3603,7 +3608,7 @@
     </row>
     <row r="30" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B30" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="93"/>
       <c r="D30" s="93"/>
@@ -3613,7 +3618,9 @@
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
       <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
+      <c r="K30" s="95">
+        <v>56</v>
+      </c>
       <c r="L30" s="96"/>
       <c r="M30" s="97"/>
       <c r="N30" s="98"/>
@@ -3624,7 +3631,7 @@
       <c r="S30" s="102"/>
       <c r="T30" s="103"/>
       <c r="V30" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W30" s="93"/>
       <c r="X30" s="93"/>
@@ -3657,7 +3664,7 @@
     </row>
     <row r="31" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B31" s="92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="93"/>
       <c r="D31" s="93"/>
@@ -3667,7 +3674,9 @@
       <c r="H31" s="93"/>
       <c r="I31" s="93"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
+      <c r="K31" s="95">
+        <v>56</v>
+      </c>
       <c r="L31" s="96"/>
       <c r="M31" s="97"/>
       <c r="N31" s="98"/>
@@ -3678,7 +3687,7 @@
       <c r="S31" s="102"/>
       <c r="T31" s="103"/>
       <c r="V31" s="92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W31" s="93"/>
       <c r="X31" s="93"/>
@@ -3711,7 +3720,7 @@
     </row>
     <row r="32" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B32" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="93"/>
       <c r="D32" s="93"/>
@@ -3721,7 +3730,9 @@
       <c r="H32" s="93"/>
       <c r="I32" s="93"/>
       <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
+      <c r="K32" s="95">
+        <v>56</v>
+      </c>
       <c r="L32" s="96"/>
       <c r="M32" s="97"/>
       <c r="N32" s="98"/>
@@ -3732,7 +3743,7 @@
       <c r="S32" s="102"/>
       <c r="T32" s="103"/>
       <c r="V32" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W32" s="93"/>
       <c r="X32" s="93"/>
@@ -3765,7 +3776,7 @@
     </row>
     <row r="33" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B33" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" s="93"/>
       <c r="D33" s="93"/>
@@ -3775,7 +3786,9 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
       <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
+      <c r="K33" s="95">
+        <v>66</v>
+      </c>
       <c r="L33" s="96"/>
       <c r="M33" s="97"/>
       <c r="N33" s="98"/>
@@ -3786,7 +3799,7 @@
       <c r="S33" s="102"/>
       <c r="T33" s="103"/>
       <c r="V33" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W33" s="93"/>
       <c r="X33" s="93"/>
@@ -3819,7 +3832,7 @@
     </row>
     <row r="34" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B34" s="92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" s="93"/>
       <c r="D34" s="93"/>
@@ -3829,7 +3842,9 @@
       <c r="H34" s="93"/>
       <c r="I34" s="93"/>
       <c r="J34" s="94"/>
-      <c r="K34" s="95"/>
+      <c r="K34" s="95">
+        <v>66</v>
+      </c>
       <c r="L34" s="96"/>
       <c r="M34" s="97"/>
       <c r="N34" s="98"/>
@@ -3840,7 +3855,7 @@
       <c r="S34" s="111"/>
       <c r="T34" s="103"/>
       <c r="V34" s="92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W34" s="93"/>
       <c r="X34" s="93"/>
@@ -3873,7 +3888,7 @@
     </row>
     <row r="35" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B35" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="93"/>
       <c r="D35" s="93"/>
@@ -3883,7 +3898,9 @@
       <c r="H35" s="93"/>
       <c r="I35" s="93"/>
       <c r="J35" s="94"/>
-      <c r="K35" s="95"/>
+      <c r="K35" s="95">
+        <v>66</v>
+      </c>
       <c r="L35" s="96"/>
       <c r="M35" s="97"/>
       <c r="N35" s="98"/>
@@ -3894,7 +3911,7 @@
       <c r="S35" s="102"/>
       <c r="T35" s="103"/>
       <c r="V35" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W35" s="93"/>
       <c r="X35" s="93"/>
@@ -3927,7 +3944,7 @@
     </row>
     <row r="36" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B36" s="92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36" s="93"/>
       <c r="D36" s="93"/>
@@ -3937,7 +3954,9 @@
       <c r="H36" s="93"/>
       <c r="I36" s="93"/>
       <c r="J36" s="94"/>
-      <c r="K36" s="95"/>
+      <c r="K36" s="95">
+        <v>66</v>
+      </c>
       <c r="L36" s="96"/>
       <c r="M36" s="97"/>
       <c r="N36" s="98"/>
@@ -3948,7 +3967,7 @@
       <c r="S36" s="102"/>
       <c r="T36" s="103"/>
       <c r="V36" s="92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W36" s="93"/>
       <c r="X36" s="93"/>
@@ -3981,7 +4000,7 @@
     </row>
     <row r="37" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B37" s="92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37" s="93"/>
       <c r="D37" s="93"/>
@@ -4002,7 +4021,7 @@
       <c r="S37" s="102"/>
       <c r="T37" s="103"/>
       <c r="V37" s="92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W37" s="93"/>
       <c r="X37" s="93"/>
@@ -4035,7 +4054,7 @@
     </row>
     <row r="38" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B38" s="116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="117"/>
       <c r="D38" s="117"/>
@@ -4045,7 +4064,9 @@
       <c r="H38" s="117"/>
       <c r="I38" s="117"/>
       <c r="J38" s="118"/>
-      <c r="K38" s="95"/>
+      <c r="K38" s="95">
+        <v>99</v>
+      </c>
       <c r="L38" s="96"/>
       <c r="M38" s="97"/>
       <c r="N38" s="98"/>
@@ -4056,7 +4077,7 @@
       <c r="S38" s="102"/>
       <c r="T38" s="103"/>
       <c r="V38" s="116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W38" s="117"/>
       <c r="X38" s="117"/>
@@ -4089,7 +4110,7 @@
     </row>
     <row r="39" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B39" s="116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" s="117"/>
       <c r="D39" s="117"/>
@@ -4099,7 +4120,9 @@
       <c r="H39" s="117"/>
       <c r="I39" s="117"/>
       <c r="J39" s="118"/>
-      <c r="K39" s="95"/>
+      <c r="K39" s="95">
+        <v>99</v>
+      </c>
       <c r="L39" s="96"/>
       <c r="M39" s="97"/>
       <c r="N39" s="98"/>
@@ -4110,7 +4133,7 @@
       <c r="S39" s="102"/>
       <c r="T39" s="103"/>
       <c r="V39" s="116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W39" s="117"/>
       <c r="X39" s="117"/>
@@ -4143,7 +4166,7 @@
     </row>
     <row r="40" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B40" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C40" s="117"/>
       <c r="D40" s="117"/>
@@ -4153,7 +4176,9 @@
       <c r="H40" s="117"/>
       <c r="I40" s="117"/>
       <c r="J40" s="118"/>
-      <c r="K40" s="95"/>
+      <c r="K40" s="95">
+        <v>99</v>
+      </c>
       <c r="L40" s="96"/>
       <c r="M40" s="97"/>
       <c r="N40" s="98"/>
@@ -4164,7 +4189,7 @@
       <c r="S40" s="102"/>
       <c r="T40" s="103"/>
       <c r="V40" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W40" s="117"/>
       <c r="X40" s="117"/>
@@ -4197,7 +4222,7 @@
     </row>
     <row r="41" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B41" s="116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="117"/>
@@ -4207,7 +4232,9 @@
       <c r="H41" s="117"/>
       <c r="I41" s="117"/>
       <c r="J41" s="118"/>
-      <c r="K41" s="95"/>
+      <c r="K41" s="95">
+        <v>9</v>
+      </c>
       <c r="L41" s="96"/>
       <c r="M41" s="97"/>
       <c r="N41" s="98"/>
@@ -4218,7 +4245,7 @@
       <c r="S41" s="102"/>
       <c r="T41" s="103"/>
       <c r="V41" s="116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W41" s="117"/>
       <c r="X41" s="117"/>
@@ -4251,7 +4278,7 @@
     </row>
     <row r="42" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B42" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="93"/>
@@ -4261,7 +4288,9 @@
       <c r="H42" s="93"/>
       <c r="I42" s="93"/>
       <c r="J42" s="94"/>
-      <c r="K42" s="95"/>
+      <c r="K42" s="95">
+        <v>99</v>
+      </c>
       <c r="L42" s="96"/>
       <c r="M42" s="97"/>
       <c r="N42" s="98"/>
@@ -4272,7 +4301,7 @@
       <c r="S42" s="102"/>
       <c r="T42" s="103"/>
       <c r="V42" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W42" s="93"/>
       <c r="X42" s="93"/>
@@ -4305,7 +4334,7 @@
     </row>
     <row r="43" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B43" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C43" s="120"/>
       <c r="D43" s="120"/>
@@ -4315,7 +4344,9 @@
       <c r="H43" s="120"/>
       <c r="I43" s="120"/>
       <c r="J43" s="121"/>
-      <c r="K43" s="122"/>
+      <c r="K43" s="122">
+        <v>676</v>
+      </c>
       <c r="L43" s="96"/>
       <c r="M43" s="97"/>
       <c r="N43" s="123"/>
@@ -4326,7 +4357,7 @@
       <c r="S43" s="102"/>
       <c r="T43" s="103"/>
       <c r="V43" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" s="120"/>
       <c r="X43" s="120"/>
@@ -4359,7 +4390,7 @@
     </row>
     <row r="44" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B44" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C44" s="120"/>
       <c r="D44" s="120"/>
@@ -4369,7 +4400,9 @@
       <c r="H44" s="120"/>
       <c r="I44" s="120"/>
       <c r="J44" s="121"/>
-      <c r="K44" s="122"/>
+      <c r="K44" s="122">
+        <v>77</v>
+      </c>
       <c r="L44" s="96"/>
       <c r="M44" s="97"/>
       <c r="N44" s="123"/>
@@ -4380,7 +4413,7 @@
       <c r="S44" s="102"/>
       <c r="T44" s="103"/>
       <c r="V44" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" s="120"/>
       <c r="X44" s="120"/>
@@ -4413,7 +4446,7 @@
     </row>
     <row r="45" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B45" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="125"/>
       <c r="D45" s="125"/>
@@ -4434,7 +4467,7 @@
       <c r="S45" s="133"/>
       <c r="T45" s="134"/>
       <c r="V45" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W45" s="125"/>
       <c r="X45" s="125"/>
@@ -4517,14 +4550,14 @@
     </row>
     <row r="47" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B47" s="139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C47" s="140"/>
       <c r="D47" s="140"/>
       <c r="E47" s="140"/>
       <c r="F47" s="141"/>
       <c r="G47" s="142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" s="143"/>
       <c r="I47" s="143"/>
@@ -4540,14 +4573,14 @@
       <c r="S47" s="143"/>
       <c r="T47" s="144"/>
       <c r="V47" s="139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W47" s="140"/>
       <c r="X47" s="140"/>
       <c r="Y47" s="140"/>
       <c r="Z47" s="141"/>
       <c r="AA47" s="142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB47" s="143"/>
       <c r="AC47" s="143"/>
@@ -4575,43 +4608,43 @@
     </row>
     <row r="48" ht="31.5" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B48" s="145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="146"/>
       <c r="D48" s="146"/>
       <c r="E48" s="146"/>
       <c r="F48" s="147"/>
       <c r="G48" s="148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H48" s="146"/>
       <c r="I48" s="146"/>
       <c r="J48" s="147"/>
       <c r="K48" s="149" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L48" s="150"/>
       <c r="M48" s="150"/>
       <c r="N48" s="151"/>
       <c r="O48" s="149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P48" s="150"/>
       <c r="Q48" s="150"/>
       <c r="R48" s="151"/>
       <c r="S48" s="152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T48" s="153"/>
       <c r="V48" s="145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W48" s="146"/>
       <c r="X48" s="146"/>
       <c r="Y48" s="146"/>
       <c r="Z48" s="147"/>
       <c r="AA48" s="149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB48" s="150"/>
       <c r="AC48" s="150"/>
@@ -4622,7 +4655,7 @@
       <c r="AH48" s="150"/>
       <c r="AI48" s="150"/>
       <c r="AJ48" s="149" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK48" s="150"/>
       <c r="AL48" s="150"/>
@@ -4631,7 +4664,7 @@
       <c r="AO48" s="150"/>
       <c r="AP48" s="150"/>
       <c r="AQ48" s="150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR48" s="150"/>
       <c r="AS48" s="150"/>
@@ -4639,7 +4672,7 @@
       <c r="AU48" s="150"/>
       <c r="AV48" s="151"/>
       <c r="AW48" s="152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AX48" s="153"/>
     </row>
@@ -4971,7 +5004,7 @@
       <c r="M55" s="42"/>
       <c r="N55" s="42"/>
       <c r="O55" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
@@ -4979,7 +5012,7 @@
       <c r="S55" s="42"/>
       <c r="T55" s="60"/>
       <c r="V55" s="64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W55" s="43"/>
       <c r="X55" s="43"/>
@@ -5001,7 +5034,7 @@
       <c r="AN55" s="42"/>
       <c r="AO55" s="42"/>
       <c r="AP55" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ55" s="19"/>
       <c r="AR55" s="19"/>
@@ -5114,7 +5147,7 @@
     </row>
     <row r="58" ht="18" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B58" s="73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" s="74"/>
       <c r="D58" s="74"/>
@@ -5125,23 +5158,23 @@
       <c r="I58" s="74"/>
       <c r="J58" s="75"/>
       <c r="K58" s="175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L58" s="176"/>
       <c r="M58" s="176"/>
       <c r="N58" s="176"/>
       <c r="O58" s="177"/>
       <c r="P58" s="84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q58" s="74"/>
       <c r="R58" s="75"/>
       <c r="S58" s="84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T58" s="85"/>
       <c r="V58" s="73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W58" s="74"/>
       <c r="X58" s="74"/>
@@ -5157,7 +5190,7 @@
       <c r="AH58" s="74"/>
       <c r="AI58" s="75"/>
       <c r="AJ58" s="83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK58" s="83"/>
       <c r="AL58" s="83"/>
@@ -5169,12 +5202,12 @@
       <c r="AR58" s="83"/>
       <c r="AS58" s="83"/>
       <c r="AT58" s="84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AU58" s="74"/>
       <c r="AV58" s="75"/>
       <c r="AW58" s="84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AX58" s="85"/>
     </row>
@@ -5246,7 +5279,7 @@
     </row>
     <row r="60" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B60" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="93"/>
       <c r="D60" s="93"/>
@@ -5267,7 +5300,7 @@
       <c r="S60" s="109"/>
       <c r="T60" s="110"/>
       <c r="V60" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W60" s="93"/>
       <c r="X60" s="93"/>
@@ -5300,7 +5333,7 @@
     </row>
     <row r="61" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B61" s="92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" s="93"/>
       <c r="D61" s="93"/>
@@ -5321,7 +5354,7 @@
       <c r="S61" s="109"/>
       <c r="T61" s="110"/>
       <c r="V61" s="92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="W61" s="93"/>
       <c r="X61" s="93"/>
@@ -5354,7 +5387,7 @@
     </row>
     <row r="62" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B62" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" s="93"/>
       <c r="D62" s="93"/>
@@ -5375,7 +5408,7 @@
       <c r="S62" s="109"/>
       <c r="T62" s="110"/>
       <c r="V62" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W62" s="93"/>
       <c r="X62" s="93"/>
@@ -5408,7 +5441,7 @@
     </row>
     <row r="63" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B63" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63" s="93"/>
       <c r="D63" s="93"/>
@@ -5429,7 +5462,7 @@
       <c r="S63" s="109"/>
       <c r="T63" s="110"/>
       <c r="V63" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W63" s="93"/>
       <c r="X63" s="93"/>
@@ -5462,7 +5495,7 @@
     </row>
     <row r="64" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B64" s="92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" s="93"/>
       <c r="D64" s="93"/>
@@ -5483,7 +5516,7 @@
       <c r="S64" s="109"/>
       <c r="T64" s="110"/>
       <c r="V64" s="92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W64" s="93"/>
       <c r="X64" s="93"/>
@@ -5516,7 +5549,7 @@
     </row>
     <row r="65" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B65" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" s="93"/>
       <c r="D65" s="93"/>
@@ -5537,7 +5570,7 @@
       <c r="S65" s="109"/>
       <c r="T65" s="110"/>
       <c r="V65" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W65" s="93"/>
       <c r="X65" s="93"/>
@@ -5570,7 +5603,7 @@
     </row>
     <row r="66" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B66" s="92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" s="93"/>
       <c r="D66" s="93"/>
@@ -5591,7 +5624,7 @@
       <c r="S66" s="109"/>
       <c r="T66" s="110"/>
       <c r="V66" s="92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W66" s="93"/>
       <c r="X66" s="93"/>
@@ -5624,7 +5657,7 @@
     </row>
     <row r="67" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B67" s="92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" s="93"/>
       <c r="D67" s="93"/>
@@ -5645,7 +5678,7 @@
       <c r="S67" s="109"/>
       <c r="T67" s="110"/>
       <c r="V67" s="92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W67" s="93"/>
       <c r="X67" s="93"/>
@@ -5678,7 +5711,7 @@
     </row>
     <row r="68" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B68" s="116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" s="117"/>
       <c r="D68" s="117"/>
@@ -5699,7 +5732,7 @@
       <c r="S68" s="109"/>
       <c r="T68" s="110"/>
       <c r="V68" s="116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W68" s="117"/>
       <c r="X68" s="117"/>
@@ -5732,7 +5765,7 @@
     </row>
     <row r="69" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B69" s="116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" s="117"/>
       <c r="D69" s="117"/>
@@ -5753,7 +5786,7 @@
       <c r="S69" s="109"/>
       <c r="T69" s="110"/>
       <c r="V69" s="116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W69" s="117"/>
       <c r="X69" s="117"/>
@@ -5786,7 +5819,7 @@
     </row>
     <row r="70" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B70" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" s="117"/>
       <c r="D70" s="117"/>
@@ -5807,7 +5840,7 @@
       <c r="S70" s="109"/>
       <c r="T70" s="110"/>
       <c r="V70" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W70" s="117"/>
       <c r="X70" s="117"/>
@@ -5840,7 +5873,7 @@
     </row>
     <row r="71" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B71" s="116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" s="117"/>
       <c r="D71" s="117"/>
@@ -5861,7 +5894,7 @@
       <c r="S71" s="109"/>
       <c r="T71" s="110"/>
       <c r="V71" s="116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W71" s="117"/>
       <c r="X71" s="117"/>
@@ -5894,7 +5927,7 @@
     </row>
     <row r="72" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B72" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
@@ -5915,7 +5948,7 @@
       <c r="S72" s="109"/>
       <c r="T72" s="110"/>
       <c r="V72" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W72" s="93"/>
       <c r="X72" s="93"/>
@@ -5948,7 +5981,7 @@
     </row>
     <row r="73" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B73" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" s="120"/>
       <c r="D73" s="120"/>
@@ -5969,7 +6002,7 @@
       <c r="S73" s="109"/>
       <c r="T73" s="110"/>
       <c r="V73" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W73" s="120"/>
       <c r="X73" s="120"/>
@@ -6002,7 +6035,7 @@
     </row>
     <row r="74" ht="21.95" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B74" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" s="120"/>
       <c r="D74" s="120"/>
@@ -6023,7 +6056,7 @@
       <c r="S74" s="109"/>
       <c r="T74" s="110"/>
       <c r="V74" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W74" s="120"/>
       <c r="X74" s="120"/>
@@ -6056,7 +6089,7 @@
     </row>
     <row r="75" ht="18.75" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B75" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" s="125"/>
       <c r="D75" s="125"/>
@@ -6077,7 +6110,7 @@
       <c r="S75" s="133"/>
       <c r="T75" s="134"/>
       <c r="V75" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W75" s="125"/>
       <c r="X75" s="125"/>
@@ -6111,14 +6144,14 @@
     <row r="76" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" ht="15.75" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B77" s="139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="140"/>
       <c r="D77" s="140"/>
       <c r="E77" s="140"/>
       <c r="F77" s="141"/>
       <c r="G77" s="142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H77" s="143"/>
       <c r="I77" s="143"/>
@@ -6135,14 +6168,14 @@
       <c r="T77" s="144"/>
       <c r="U77" s="178"/>
       <c r="V77" s="139" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W77" s="140"/>
       <c r="X77" s="140"/>
       <c r="Y77" s="140"/>
       <c r="Z77" s="141"/>
       <c r="AA77" s="142" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB77" s="143"/>
       <c r="AC77" s="143"/>
@@ -6170,44 +6203,44 @@
     </row>
     <row r="78" ht="31.5" customHeight="1" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B78" s="145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C78" s="146"/>
       <c r="D78" s="146"/>
       <c r="E78" s="146"/>
       <c r="F78" s="147"/>
       <c r="G78" s="148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H78" s="146"/>
       <c r="I78" s="146"/>
       <c r="J78" s="147"/>
       <c r="K78" s="149" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L78" s="150"/>
       <c r="M78" s="150"/>
       <c r="N78" s="151"/>
       <c r="O78" s="149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P78" s="150"/>
       <c r="Q78" s="150"/>
       <c r="R78" s="151"/>
       <c r="S78" s="152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T78" s="153"/>
       <c r="U78" s="1"/>
       <c r="V78" s="145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W78" s="146"/>
       <c r="X78" s="146"/>
       <c r="Y78" s="146"/>
       <c r="Z78" s="147"/>
       <c r="AA78" s="149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB78" s="150"/>
       <c r="AC78" s="150"/>
@@ -6218,7 +6251,7 @@
       <c r="AH78" s="150"/>
       <c r="AI78" s="150"/>
       <c r="AJ78" s="149" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK78" s="150"/>
       <c r="AL78" s="150"/>
@@ -6227,7 +6260,7 @@
       <c r="AO78" s="150"/>
       <c r="AP78" s="150"/>
       <c r="AQ78" s="150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR78" s="150"/>
       <c r="AS78" s="150"/>
@@ -6235,7 +6268,7 @@
       <c r="AU78" s="150"/>
       <c r="AV78" s="151"/>
       <c r="AW78" s="152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AX78" s="153"/>
     </row>
@@ -6387,7 +6420,7 @@
       <c r="AR81" s="1"/>
       <c r="AS81" s="1"/>
       <c r="AT81" s="179" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AU81" s="179"/>
       <c r="AV81" s="179"/>
@@ -6997,37 +7030,37 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -7085,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="181" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
@@ -7128,7 +7161,7 @@
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
@@ -7149,7 +7182,7 @@
       <c r="Q3" s="54"/>
       <c r="R3" s="1"/>
       <c r="S3" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
@@ -7172,7 +7205,7 @@
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B4" s="58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7192,7 +7225,7 @@
       <c r="P4" s="59"/>
       <c r="Q4" s="61"/>
       <c r="S4" s="58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -7215,7 +7248,7 @@
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B5" s="58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -7235,7 +7268,7 @@
       <c r="P5" s="42"/>
       <c r="Q5" s="60"/>
       <c r="S5" s="58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -7258,7 +7291,7 @@
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B6" s="64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -7269,7 +7302,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -7278,7 +7311,7 @@
       <c r="P6" s="71"/>
       <c r="Q6" s="72"/>
       <c r="S6" s="64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T6" s="43"/>
       <c r="U6" s="15"/>
@@ -7290,7 +7323,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
@@ -7336,7 +7369,7 @@
     </row>
     <row r="8" ht="18" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8" s="73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -7344,23 +7377,23 @@
       <c r="F8" s="74"/>
       <c r="G8" s="75"/>
       <c r="H8" s="175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="176"/>
       <c r="J8" s="176"/>
       <c r="K8" s="177"/>
       <c r="L8" s="84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" s="74"/>
       <c r="N8" s="75"/>
       <c r="O8" s="84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P8" s="74"/>
       <c r="Q8" s="85"/>
       <c r="S8" s="73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T8" s="74"/>
       <c r="U8" s="74"/>
@@ -7371,17 +7404,17 @@
       <c r="Z8" s="74"/>
       <c r="AA8" s="75"/>
       <c r="AB8" s="175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC8" s="176"/>
       <c r="AD8" s="176"/>
       <c r="AE8" s="176"/>
       <c r="AF8" s="177"/>
       <c r="AG8" s="185" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH8" s="84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI8" s="85"/>
     </row>
@@ -7438,7 +7471,7 @@
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B10" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="93"/>
       <c r="D10" s="93"/>
@@ -7456,7 +7489,7 @@
       <c r="P10" s="187"/>
       <c r="Q10" s="110"/>
       <c r="S10" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T10" s="93"/>
       <c r="U10" s="93"/>
@@ -7477,7 +7510,7 @@
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B11" s="92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="93"/>
       <c r="D11" s="93"/>
@@ -7495,7 +7528,7 @@
       <c r="P11" s="187"/>
       <c r="Q11" s="110"/>
       <c r="S11" s="92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T11" s="93"/>
       <c r="U11" s="93"/>
@@ -7516,7 +7549,7 @@
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B12" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="93"/>
       <c r="D12" s="93"/>
@@ -7534,7 +7567,7 @@
       <c r="P12" s="187"/>
       <c r="Q12" s="110"/>
       <c r="S12" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T12" s="93"/>
       <c r="U12" s="93"/>
@@ -7555,7 +7588,7 @@
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B13" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="93"/>
       <c r="D13" s="93"/>
@@ -7573,7 +7606,7 @@
       <c r="P13" s="187"/>
       <c r="Q13" s="110"/>
       <c r="S13" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T13" s="93"/>
       <c r="U13" s="93"/>
@@ -7594,7 +7627,7 @@
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B14" s="92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="93"/>
       <c r="D14" s="93"/>
@@ -7612,7 +7645,7 @@
       <c r="P14" s="187"/>
       <c r="Q14" s="110"/>
       <c r="S14" s="92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T14" s="93"/>
       <c r="U14" s="93"/>
@@ -7633,7 +7666,7 @@
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B15" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="93"/>
       <c r="D15" s="93"/>
@@ -7651,7 +7684,7 @@
       <c r="P15" s="187"/>
       <c r="Q15" s="110"/>
       <c r="S15" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T15" s="93"/>
       <c r="U15" s="93"/>
@@ -7672,7 +7705,7 @@
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B16" s="92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="93"/>
       <c r="D16" s="93"/>
@@ -7690,7 +7723,7 @@
       <c r="P16" s="187"/>
       <c r="Q16" s="110"/>
       <c r="S16" s="92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T16" s="93"/>
       <c r="U16" s="93"/>
@@ -7711,7 +7744,7 @@
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" s="92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="93"/>
       <c r="D17" s="93"/>
@@ -7729,7 +7762,7 @@
       <c r="P17" s="187"/>
       <c r="Q17" s="110"/>
       <c r="S17" s="92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T17" s="93"/>
       <c r="U17" s="93"/>
@@ -7750,7 +7783,7 @@
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" s="116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18" s="117"/>
       <c r="D18" s="117"/>
@@ -7768,7 +7801,7 @@
       <c r="P18" s="187"/>
       <c r="Q18" s="110"/>
       <c r="S18" s="116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" s="117"/>
       <c r="U18" s="117"/>
@@ -7789,7 +7822,7 @@
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" s="116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="117"/>
       <c r="D19" s="117"/>
@@ -7807,7 +7840,7 @@
       <c r="P19" s="187"/>
       <c r="Q19" s="110"/>
       <c r="S19" s="116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T19" s="117"/>
       <c r="U19" s="117"/>
@@ -7828,7 +7861,7 @@
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="117"/>
       <c r="D20" s="117"/>
@@ -7846,7 +7879,7 @@
       <c r="P20" s="187"/>
       <c r="Q20" s="110"/>
       <c r="S20" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" s="117"/>
       <c r="U20" s="117"/>
@@ -7867,7 +7900,7 @@
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" s="116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="117"/>
       <c r="D21" s="117"/>
@@ -7885,7 +7918,7 @@
       <c r="P21" s="187"/>
       <c r="Q21" s="110"/>
       <c r="S21" s="116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" s="117"/>
       <c r="U21" s="117"/>
@@ -7906,7 +7939,7 @@
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="93"/>
       <c r="D22" s="93"/>
@@ -7924,7 +7957,7 @@
       <c r="P22" s="187"/>
       <c r="Q22" s="110"/>
       <c r="S22" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T22" s="93"/>
       <c r="U22" s="93"/>
@@ -7945,7 +7978,7 @@
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="120"/>
       <c r="D23" s="120"/>
@@ -7963,7 +7996,7 @@
       <c r="P23" s="187"/>
       <c r="Q23" s="110"/>
       <c r="S23" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" s="120"/>
       <c r="U23" s="120"/>
@@ -7984,7 +8017,7 @@
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="120"/>
       <c r="D24" s="120"/>
@@ -8002,7 +8035,7 @@
       <c r="P24" s="187"/>
       <c r="Q24" s="110"/>
       <c r="S24" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" s="120"/>
       <c r="U24" s="120"/>
@@ -8023,7 +8056,7 @@
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="125"/>
       <c r="D25" s="125"/>
@@ -8041,7 +8074,7 @@
       <c r="P25" s="191"/>
       <c r="Q25" s="134"/>
       <c r="S25" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T25" s="125"/>
       <c r="U25" s="125"/>
@@ -8097,13 +8130,13 @@
     </row>
     <row r="27" ht="12" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="193" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="143"/>
       <c r="D27" s="143"/>
       <c r="E27" s="194"/>
       <c r="F27" s="142" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" s="143"/>
       <c r="H27" s="143"/>
@@ -8118,13 +8151,13 @@
       <c r="Q27" s="144"/>
       <c r="R27" s="56"/>
       <c r="S27" s="193" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T27" s="143"/>
       <c r="U27" s="143"/>
       <c r="V27" s="194"/>
       <c r="W27" s="195" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X27" s="195"/>
       <c r="Y27" s="195"/>
@@ -8141,40 +8174,40 @@
     </row>
     <row r="28" ht="31.5" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" s="145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="146"/>
       <c r="D28" s="146"/>
       <c r="E28" s="147"/>
       <c r="F28" s="148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G28" s="147"/>
       <c r="H28" s="149" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" s="150"/>
       <c r="J28" s="151"/>
       <c r="K28" s="149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L28" s="150"/>
       <c r="M28" s="150"/>
       <c r="N28" s="151"/>
       <c r="O28" s="152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P28" s="148"/>
       <c r="Q28" s="153"/>
       <c r="R28" s="1"/>
       <c r="S28" s="145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T28" s="146"/>
       <c r="U28" s="146"/>
       <c r="V28" s="147"/>
       <c r="W28" s="197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X28" s="197"/>
       <c r="Y28" s="197"/>
@@ -8182,16 +8215,16 @@
       <c r="AA28" s="197"/>
       <c r="AB28" s="197"/>
       <c r="AC28" s="197" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD28" s="197"/>
       <c r="AE28" s="197"/>
       <c r="AF28" s="197" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG28" s="197"/>
       <c r="AH28" s="152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI28" s="153"/>
     </row>
@@ -8305,7 +8338,7 @@
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
@@ -8325,7 +8358,7 @@
       <c r="P32" s="52"/>
       <c r="Q32" s="54"/>
       <c r="S32" s="55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T32" s="56"/>
       <c r="U32" s="56"/>
@@ -8348,7 +8381,7 @@
     </row>
     <row r="33" ht="18" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" s="58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -8368,7 +8401,7 @@
       <c r="P33" s="59"/>
       <c r="Q33" s="61"/>
       <c r="S33" s="58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -8391,7 +8424,7 @@
     </row>
     <row r="34" ht="18" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34" s="58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -8411,7 +8444,7 @@
       <c r="P34" s="42"/>
       <c r="Q34" s="60"/>
       <c r="S34" s="58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -8434,7 +8467,7 @@
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" s="64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -8445,7 +8478,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
@@ -8454,7 +8487,7 @@
       <c r="P35" s="71"/>
       <c r="Q35" s="72"/>
       <c r="S35" s="64" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T35" s="43"/>
       <c r="U35" s="15"/>
@@ -8466,7 +8499,7 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
@@ -8512,7 +8545,7 @@
     </row>
     <row r="37" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" s="73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C37" s="74"/>
       <c r="D37" s="74"/>
@@ -8520,24 +8553,24 @@
       <c r="F37" s="74"/>
       <c r="G37" s="75"/>
       <c r="H37" s="175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I37" s="176"/>
       <c r="J37" s="176"/>
       <c r="K37" s="177"/>
       <c r="L37" s="84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M37" s="74"/>
       <c r="N37" s="75"/>
       <c r="O37" s="84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P37" s="74"/>
       <c r="Q37" s="85"/>
       <c r="R37" s="1"/>
       <c r="S37" s="73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
@@ -8548,17 +8581,17 @@
       <c r="Z37" s="74"/>
       <c r="AA37" s="75"/>
       <c r="AB37" s="175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC37" s="176"/>
       <c r="AD37" s="176"/>
       <c r="AE37" s="176"/>
       <c r="AF37" s="177"/>
       <c r="AG37" s="185" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AH37" s="84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI37" s="85"/>
     </row>
@@ -8615,7 +8648,7 @@
     </row>
     <row r="39" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="93"/>
       <c r="D39" s="93"/>
@@ -8633,7 +8666,7 @@
       <c r="P39" s="187"/>
       <c r="Q39" s="110"/>
       <c r="S39" s="92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T39" s="93"/>
       <c r="U39" s="93"/>
@@ -8654,7 +8687,7 @@
     </row>
     <row r="40" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40" s="92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="93"/>
       <c r="D40" s="93"/>
@@ -8672,7 +8705,7 @@
       <c r="P40" s="187"/>
       <c r="Q40" s="110"/>
       <c r="S40" s="92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T40" s="93"/>
       <c r="U40" s="93"/>
@@ -8693,7 +8726,7 @@
     </row>
     <row r="41" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="93"/>
       <c r="D41" s="93"/>
@@ -8711,7 +8744,7 @@
       <c r="P41" s="187"/>
       <c r="Q41" s="110"/>
       <c r="S41" s="92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T41" s="93"/>
       <c r="U41" s="93"/>
@@ -8732,7 +8765,7 @@
     </row>
     <row r="42" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="93"/>
@@ -8750,7 +8783,7 @@
       <c r="P42" s="187"/>
       <c r="Q42" s="110"/>
       <c r="S42" s="92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T42" s="93"/>
       <c r="U42" s="93"/>
@@ -8771,7 +8804,7 @@
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B43" s="92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="93"/>
       <c r="D43" s="93"/>
@@ -8789,7 +8822,7 @@
       <c r="P43" s="187"/>
       <c r="Q43" s="110"/>
       <c r="S43" s="92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T43" s="93"/>
       <c r="U43" s="93"/>
@@ -8810,7 +8843,7 @@
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C44" s="93"/>
       <c r="D44" s="93"/>
@@ -8828,7 +8861,7 @@
       <c r="P44" s="187"/>
       <c r="Q44" s="110"/>
       <c r="S44" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T44" s="93"/>
       <c r="U44" s="93"/>
@@ -8849,7 +8882,7 @@
     </row>
     <row r="45" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" s="92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="93"/>
       <c r="D45" s="93"/>
@@ -8867,7 +8900,7 @@
       <c r="P45" s="187"/>
       <c r="Q45" s="110"/>
       <c r="S45" s="92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T45" s="93"/>
       <c r="U45" s="93"/>
@@ -8888,7 +8921,7 @@
     </row>
     <row r="46" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" s="92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" s="93"/>
       <c r="D46" s="93"/>
@@ -8906,7 +8939,7 @@
       <c r="P46" s="187"/>
       <c r="Q46" s="110"/>
       <c r="S46" s="92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T46" s="93"/>
       <c r="U46" s="93"/>
@@ -8927,7 +8960,7 @@
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47" s="116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="117"/>
       <c r="D47" s="117"/>
@@ -8945,7 +8978,7 @@
       <c r="P47" s="187"/>
       <c r="Q47" s="110"/>
       <c r="S47" s="116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T47" s="117"/>
       <c r="U47" s="117"/>
@@ -8966,7 +8999,7 @@
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B48" s="116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" s="117"/>
       <c r="D48" s="117"/>
@@ -8984,7 +9017,7 @@
       <c r="P48" s="187"/>
       <c r="Q48" s="110"/>
       <c r="S48" s="116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T48" s="117"/>
       <c r="U48" s="117"/>
@@ -9005,7 +9038,7 @@
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B49" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49" s="117"/>
       <c r="D49" s="117"/>
@@ -9023,7 +9056,7 @@
       <c r="P49" s="187"/>
       <c r="Q49" s="110"/>
       <c r="S49" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T49" s="117"/>
       <c r="U49" s="117"/>
@@ -9044,7 +9077,7 @@
     </row>
     <row r="50" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B50" s="116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" s="117"/>
       <c r="D50" s="117"/>
@@ -9062,7 +9095,7 @@
       <c r="P50" s="187"/>
       <c r="Q50" s="110"/>
       <c r="S50" s="116" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T50" s="117"/>
       <c r="U50" s="117"/>
@@ -9083,7 +9116,7 @@
     </row>
     <row r="51" ht="18.75" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B51" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" s="93"/>
       <c r="D51" s="93"/>
@@ -9101,7 +9134,7 @@
       <c r="P51" s="187"/>
       <c r="Q51" s="110"/>
       <c r="S51" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T51" s="93"/>
       <c r="U51" s="93"/>
@@ -9122,7 +9155,7 @@
     </row>
     <row r="52" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B52" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="120"/>
       <c r="D52" s="120"/>
@@ -9140,7 +9173,7 @@
       <c r="P52" s="187"/>
       <c r="Q52" s="110"/>
       <c r="S52" s="119" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" s="120"/>
       <c r="U52" s="120"/>
@@ -9161,7 +9194,7 @@
     </row>
     <row r="53" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B53" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" s="120"/>
       <c r="D53" s="120"/>
@@ -9179,7 +9212,7 @@
       <c r="P53" s="187"/>
       <c r="Q53" s="110"/>
       <c r="S53" s="119" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T53" s="120"/>
       <c r="U53" s="120"/>
@@ -9200,7 +9233,7 @@
     </row>
     <row r="54" ht="19.5" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B54" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="125"/>
       <c r="D54" s="125"/>
@@ -9218,7 +9251,7 @@
       <c r="P54" s="191"/>
       <c r="Q54" s="134"/>
       <c r="S54" s="124" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T54" s="125"/>
       <c r="U54" s="125"/>
@@ -9274,13 +9307,13 @@
     </row>
     <row r="56" ht="15" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B56" s="193" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="143"/>
       <c r="D56" s="143"/>
       <c r="E56" s="194"/>
       <c r="F56" s="142" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G56" s="143"/>
       <c r="H56" s="143"/>
@@ -9295,13 +9328,13 @@
       <c r="Q56" s="144"/>
       <c r="R56" s="56"/>
       <c r="S56" s="193" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T56" s="143"/>
       <c r="U56" s="143"/>
       <c r="V56" s="194"/>
       <c r="W56" s="195" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X56" s="195"/>
       <c r="Y56" s="195"/>
@@ -9318,40 +9351,40 @@
     </row>
     <row r="57" ht="31.5" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B57" s="145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" s="146"/>
       <c r="D57" s="146"/>
       <c r="E57" s="147"/>
       <c r="F57" s="152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G57" s="152"/>
       <c r="H57" s="149" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I57" s="150"/>
       <c r="J57" s="151"/>
       <c r="K57" s="149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L57" s="150"/>
       <c r="M57" s="150"/>
       <c r="N57" s="151"/>
       <c r="O57" s="152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P57" s="148"/>
       <c r="Q57" s="153"/>
       <c r="R57" s="1"/>
       <c r="S57" s="145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T57" s="146"/>
       <c r="U57" s="146"/>
       <c r="V57" s="147"/>
       <c r="W57" s="197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X57" s="197"/>
       <c r="Y57" s="197"/>
@@ -9359,16 +9392,16 @@
       <c r="AA57" s="197"/>
       <c r="AB57" s="197"/>
       <c r="AC57" s="197" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD57" s="197"/>
       <c r="AE57" s="197"/>
       <c r="AF57" s="197" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG57" s="197"/>
       <c r="AH57" s="152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI57" s="153"/>
     </row>
@@ -9446,7 +9479,7 @@
     </row>
     <row r="60" ht="27" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B60" s="199" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C60" s="199"/>
       <c r="D60" s="199"/>
@@ -9485,7 +9518,7 @@
     <row r="61" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B61" s="200"/>
       <c r="C61" s="201" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D61" s="201"/>
       <c r="E61" s="201"/>
@@ -9523,7 +9556,7 @@
     <row r="62" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B62" s="203"/>
       <c r="C62" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
@@ -9539,14 +9572,14 @@
       <c r="O62" s="41"/>
       <c r="P62" s="41"/>
       <c r="Q62" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R62" s="39"/>
       <c r="S62" s="41"/>
       <c r="T62" s="41"/>
       <c r="U62" s="41"/>
       <c r="V62" s="204" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W62" s="204"/>
       <c r="X62" s="204"/>
@@ -9561,13 +9594,13 @@
       <c r="AG62" s="204"/>
       <c r="AH62" s="205"/>
       <c r="AI62" s="206" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B63" s="203"/>
       <c r="C63" s="45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="41"/>
@@ -9576,7 +9609,7 @@
       <c r="H63" s="41"/>
       <c r="I63" s="41"/>
       <c r="J63" s="45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K63" s="45"/>
       <c r="L63" s="207"/>
@@ -9590,7 +9623,7 @@
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
       <c r="T63" s="137" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U63" s="137"/>
       <c r="V63" s="137"/>
@@ -9685,7 +9718,7 @@
       <c r="C66" s="208"/>
       <c r="D66" s="208"/>
       <c r="E66" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
@@ -9695,7 +9728,7 @@
       <c r="K66" s="208"/>
       <c r="L66" s="208"/>
       <c r="M66" s="208" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N66" s="208"/>
       <c r="O66" s="208"/>
@@ -9714,7 +9747,7 @@
       <c r="AB66" s="71"/>
       <c r="AC66" s="71"/>
       <c r="AD66" s="212" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE66" s="212"/>
       <c r="AF66" s="212"/>
@@ -9725,7 +9758,7 @@
     <row r="68" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B68" s="200"/>
       <c r="C68" s="201" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D68" s="201"/>
       <c r="E68" s="201"/>
@@ -9763,7 +9796,7 @@
     <row r="69" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B69" s="203"/>
       <c r="C69" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
@@ -9779,14 +9812,14 @@
       <c r="O69" s="41"/>
       <c r="P69" s="41"/>
       <c r="Q69" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R69" s="39"/>
       <c r="S69" s="41"/>
       <c r="T69" s="41"/>
       <c r="U69" s="41"/>
       <c r="V69" s="204" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W69" s="204"/>
       <c r="X69" s="204"/>
@@ -9801,13 +9834,13 @@
       <c r="AG69" s="204"/>
       <c r="AH69" s="205"/>
       <c r="AI69" s="206" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B70" s="203"/>
       <c r="C70" s="45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D70" s="45"/>
       <c r="E70" s="41"/>
@@ -9816,7 +9849,7 @@
       <c r="H70" s="41"/>
       <c r="I70" s="41"/>
       <c r="J70" s="45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K70" s="45"/>
       <c r="L70" s="207"/>
@@ -9830,7 +9863,7 @@
       <c r="R70" s="41"/>
       <c r="S70" s="41"/>
       <c r="T70" s="137" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U70" s="137"/>
       <c r="V70" s="137"/>
@@ -9925,7 +9958,7 @@
       <c r="C73" s="208"/>
       <c r="D73" s="208"/>
       <c r="E73" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
@@ -9935,7 +9968,7 @@
       <c r="K73" s="208"/>
       <c r="L73" s="208"/>
       <c r="M73" s="208" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N73" s="208"/>
       <c r="O73" s="208"/>
@@ -9954,7 +9987,7 @@
       <c r="AB73" s="71"/>
       <c r="AC73" s="71"/>
       <c r="AD73" s="212" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE73" s="212"/>
       <c r="AF73" s="212"/>
@@ -9965,7 +9998,7 @@
     <row r="75" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B75" s="200"/>
       <c r="C75" s="201" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D75" s="201"/>
       <c r="E75" s="201"/>
@@ -10003,7 +10036,7 @@
     <row r="76" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B76" s="203"/>
       <c r="C76" s="45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D76" s="45"/>
       <c r="E76" s="45"/>
@@ -10019,14 +10052,14 @@
       <c r="O76" s="41"/>
       <c r="P76" s="41"/>
       <c r="Q76" s="45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R76" s="39"/>
       <c r="S76" s="41"/>
       <c r="T76" s="41"/>
       <c r="U76" s="41"/>
       <c r="V76" s="204" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W76" s="204"/>
       <c r="X76" s="204"/>
@@ -10041,13 +10074,13 @@
       <c r="AG76" s="204"/>
       <c r="AH76" s="205"/>
       <c r="AI76" s="206" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" ht="20.1" customHeight="1" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B77" s="203"/>
       <c r="C77" s="45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="41"/>
@@ -10056,7 +10089,7 @@
       <c r="H77" s="41"/>
       <c r="I77" s="41"/>
       <c r="J77" s="45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K77" s="45"/>
       <c r="L77" s="207"/>
@@ -10070,7 +10103,7 @@
       <c r="R77" s="41"/>
       <c r="S77" s="41"/>
       <c r="T77" s="137" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U77" s="137"/>
       <c r="V77" s="137"/>
@@ -10165,7 +10198,7 @@
       <c r="C80" s="208"/>
       <c r="D80" s="208"/>
       <c r="E80" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
@@ -10175,7 +10208,7 @@
       <c r="K80" s="208"/>
       <c r="L80" s="208"/>
       <c r="M80" s="208" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N80" s="208"/>
       <c r="O80" s="208"/>
@@ -10194,7 +10227,7 @@
       <c r="AB80" s="71"/>
       <c r="AC80" s="71"/>
       <c r="AD80" s="212" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE80" s="212"/>
       <c r="AF80" s="212"/>
@@ -10204,10 +10237,10 @@
     </row>
     <row r="81" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG81" s="214" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/api/new.xlsx
+++ b/api/new.xlsx
@@ -59,19 +59,19 @@
     <t>FIRST NAME:</t>
   </si>
   <si>
-    <t>asdf</t>
+    <t>Irish</t>
   </si>
   <si>
     <t>NAME EXTN. (Jr,I,II)</t>
   </si>
   <si>
-    <t>ere</t>
+    <t>none</t>
   </si>
   <si>
     <t>MIDDLE NAME:</t>
   </si>
   <si>
-    <t>sdaf</t>
+    <t>Solatorio</t>
   </si>
   <si>
     <t xml:space="preserve">Learner Reference Number (LRN): </t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Sex: </t>
   </si>
   <si>
-    <t>M</t>
+    <t>F</t>
   </si>
   <si>
     <t>ELIGIBILITY FOR ELEMENTARY SCHOOL ENROLMENT</t>
@@ -104,7 +104,7 @@
     <t>Name of School:</t>
   </si>
   <si>
-    <t>vdzvsdfgsd</t>
+    <t>mes</t>
   </si>
   <si>
     <t>School ID:</t>
@@ -113,7 +113,7 @@
     <t>Address of School:</t>
   </si>
   <si>
-    <t>dfgsdfsdf</t>
+    <t>Simala</t>
   </si>
   <si>
     <t>Other Credential Presented</t>
@@ -128,13 +128,13 @@
     <t>Others (Pls. Specify):</t>
   </si>
   <si>
-    <t>["dsafsdaf"]</t>
+    <t>["koko"]</t>
   </si>
   <si>
     <t>Name and Address of Testing Center:</t>
   </si>
   <si>
-    <t>sdafasdf</t>
+    <t>hgjhjhj</t>
   </si>
   <si>
     <t>Remark:</t>
@@ -185,7 +185,7 @@
     <t>Section:</t>
   </si>
   <si>
-    <t>Rose</t>
+    <t>Ruby</t>
   </si>
   <si>
     <t xml:space="preserve">School Year: </t>
@@ -2524,7 +2524,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="16">
-        <v>90</v>
+        <v>18106242</v>
       </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
@@ -2535,7 +2535,7 @@
         <v>14</v>
       </c>
       <c r="V10" s="17">
-        <v>36452.666666666664</v>
+        <v>44255.66666666667</v>
       </c>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="S15" s="32"/>
       <c r="T15" s="33">
-        <v>434534</v>
+        <v>123456</v>
       </c>
       <c r="U15" s="33"/>
       <c r="V15" s="30" t="s">
@@ -2910,7 +2910,7 @@
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="41">
-        <v>445435</v>
+        <v>1852</v>
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="40" t="s">
@@ -2927,7 +2927,7 @@
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
       <c r="W18" s="42">
-        <v>44262.66666666667</v>
+        <v>44255.66666666667</v>
       </c>
       <c r="X18" s="42"/>
       <c r="Y18" s="42"/>
@@ -3000,7 +3000,7 @@
       <c r="AH19" s="37"/>
       <c r="AI19" s="37"/>
       <c r="AJ19" s="44">
-        <v>34</v>
+        <v>1245</v>
       </c>
       <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
@@ -3618,9 +3618,7 @@
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
       <c r="J30" s="94"/>
-      <c r="K30" s="95">
-        <v>56</v>
-      </c>
+      <c r="K30" s="95"/>
       <c r="L30" s="96"/>
       <c r="M30" s="97"/>
       <c r="N30" s="98"/>
@@ -3674,9 +3672,7 @@
       <c r="H31" s="93"/>
       <c r="I31" s="93"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="95">
-        <v>56</v>
-      </c>
+      <c r="K31" s="95"/>
       <c r="L31" s="96"/>
       <c r="M31" s="97"/>
       <c r="N31" s="98"/>
@@ -3730,9 +3726,7 @@
       <c r="H32" s="93"/>
       <c r="I32" s="93"/>
       <c r="J32" s="94"/>
-      <c r="K32" s="95">
-        <v>56</v>
-      </c>
+      <c r="K32" s="95"/>
       <c r="L32" s="96"/>
       <c r="M32" s="97"/>
       <c r="N32" s="98"/>
@@ -3786,9 +3780,7 @@
       <c r="H33" s="93"/>
       <c r="I33" s="93"/>
       <c r="J33" s="94"/>
-      <c r="K33" s="95">
-        <v>66</v>
-      </c>
+      <c r="K33" s="95"/>
       <c r="L33" s="96"/>
       <c r="M33" s="97"/>
       <c r="N33" s="98"/>
@@ -3842,9 +3834,7 @@
       <c r="H34" s="93"/>
       <c r="I34" s="93"/>
       <c r="J34" s="94"/>
-      <c r="K34" s="95">
-        <v>66</v>
-      </c>
+      <c r="K34" s="95"/>
       <c r="L34" s="96"/>
       <c r="M34" s="97"/>
       <c r="N34" s="98"/>
@@ -3898,9 +3888,7 @@
       <c r="H35" s="93"/>
       <c r="I35" s="93"/>
       <c r="J35" s="94"/>
-      <c r="K35" s="95">
-        <v>66</v>
-      </c>
+      <c r="K35" s="95"/>
       <c r="L35" s="96"/>
       <c r="M35" s="97"/>
       <c r="N35" s="98"/>
@@ -3954,9 +3942,7 @@
       <c r="H36" s="93"/>
       <c r="I36" s="93"/>
       <c r="J36" s="94"/>
-      <c r="K36" s="95">
-        <v>66</v>
-      </c>
+      <c r="K36" s="95"/>
       <c r="L36" s="96"/>
       <c r="M36" s="97"/>
       <c r="N36" s="98"/>
@@ -4064,9 +4050,7 @@
       <c r="H38" s="117"/>
       <c r="I38" s="117"/>
       <c r="J38" s="118"/>
-      <c r="K38" s="95">
-        <v>99</v>
-      </c>
+      <c r="K38" s="95"/>
       <c r="L38" s="96"/>
       <c r="M38" s="97"/>
       <c r="N38" s="98"/>
@@ -4120,9 +4104,7 @@
       <c r="H39" s="117"/>
       <c r="I39" s="117"/>
       <c r="J39" s="118"/>
-      <c r="K39" s="95">
-        <v>99</v>
-      </c>
+      <c r="K39" s="95"/>
       <c r="L39" s="96"/>
       <c r="M39" s="97"/>
       <c r="N39" s="98"/>
@@ -4176,9 +4158,7 @@
       <c r="H40" s="117"/>
       <c r="I40" s="117"/>
       <c r="J40" s="118"/>
-      <c r="K40" s="95">
-        <v>99</v>
-      </c>
+      <c r="K40" s="95"/>
       <c r="L40" s="96"/>
       <c r="M40" s="97"/>
       <c r="N40" s="98"/>
@@ -4232,9 +4212,7 @@
       <c r="H41" s="117"/>
       <c r="I41" s="117"/>
       <c r="J41" s="118"/>
-      <c r="K41" s="95">
-        <v>9</v>
-      </c>
+      <c r="K41" s="95"/>
       <c r="L41" s="96"/>
       <c r="M41" s="97"/>
       <c r="N41" s="98"/>
@@ -4288,9 +4266,7 @@
       <c r="H42" s="93"/>
       <c r="I42" s="93"/>
       <c r="J42" s="94"/>
-      <c r="K42" s="95">
-        <v>99</v>
-      </c>
+      <c r="K42" s="95"/>
       <c r="L42" s="96"/>
       <c r="M42" s="97"/>
       <c r="N42" s="98"/>
@@ -4344,9 +4320,7 @@
       <c r="H43" s="120"/>
       <c r="I43" s="120"/>
       <c r="J43" s="121"/>
-      <c r="K43" s="122">
-        <v>676</v>
-      </c>
+      <c r="K43" s="122"/>
       <c r="L43" s="96"/>
       <c r="M43" s="97"/>
       <c r="N43" s="123"/>
@@ -4400,9 +4374,7 @@
       <c r="H44" s="120"/>
       <c r="I44" s="120"/>
       <c r="J44" s="121"/>
-      <c r="K44" s="122">
-        <v>77</v>
-      </c>
+      <c r="K44" s="122"/>
       <c r="L44" s="96"/>
       <c r="M44" s="97"/>
       <c r="N44" s="123"/>
